--- a/biology/Médecine/Syndrome_de_Barraquer-Simons/Syndrome_de_Barraquer-Simons.xlsx
+++ b/biology/Médecine/Syndrome_de_Barraquer-Simons/Syndrome_de_Barraquer-Simons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Barraquer-Simons est une lipodystrophie partielle rare (céphalo-thoracique) et considérée comme acquise[1]. Elle est marquée par une atrophie du tissu graisseux au niveau de la face, du cou, du tronc et des membres supérieurs ; et une hyperthrophie du tissu graisseux du bas du corps[2]. 
-Une étude de 2018 indique que le syndrome Barraquer-Simons est plus souvent familial qu'antérieurement admis[3], une autre étude indique qu'il n'y a pas d'antécédents familiaux[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Barraquer-Simons est une lipodystrophie partielle rare (céphalo-thoracique) et considérée comme acquise. Elle est marquée par une atrophie du tissu graisseux au niveau de la face, du cou, du tronc et des membres supérieurs ; et une hyperthrophie du tissu graisseux du bas du corps. 
+Une étude de 2018 indique que le syndrome Barraquer-Simons est plus souvent familial qu'antérieurement admis, une autre étude indique qu'il n'y a pas d'antécédents familiaux. 
 La maladie débute souvent dans l'enfance. 
-Les niveaux de C3 peuvent être faibles et il peut y avoir la présence d'un facteur C3-néphritique (C3NEF)[5],[6] ce qui peut indiquer une atteinte rénale.
-Dans 20% des cas une glomérulonéphrite membranoproliférative de type II  (aussi appelé Maladie à dépôts denses) apparait , elle débute environ 8 ans après le début de la maladie[7].
-Le sexe ratio est de 4 femmes touchées pour 1 homme[7].
+Les niveaux de C3 peuvent être faibles et il peut y avoir la présence d'un facteur C3-néphritique (C3NEF), ce qui peut indiquer une atteinte rénale.
+Dans 20% des cas une glomérulonéphrite membranoproliférative de type II  (aussi appelé Maladie à dépôts denses) apparait , elle débute environ 8 ans après le début de la maladie.
+Le sexe ratio est de 4 femmes touchées pour 1 homme.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cause est inconnue certaines études indiquent une piste autoimmune (complément) et d'autres une piste génétique (LMNB2...) [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause est inconnue certaines études indiquent une piste autoimmune (complément) et d'autres une piste génétique (LMNB2...) .
 </t>
         </is>
       </c>
